--- a/docs/samples/Pre-Approval/Case3_GPT_Result.xlsx
+++ b/docs/samples/Pre-Approval/Case3_GPT_Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work DRT\ULINK\AI Claim Pre-Approval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ulink-is-ai\docs\samples\Pre-Approval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D064316-0B6A-4982-BF69-F85C9381CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A9BA06-4DB4-4B3A-B507-F3FF5965DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{2577BA96-D257-4839-A7C9-17308F490393}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2577BA96-D257-4839-A7C9-17308F490393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6097ED-0B79-41AA-9892-DB727E1B9FFD}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,46 +664,46 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45427</v>
       </c>
       <c r="G2" s="1">
         <v>45427</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1">
+        <v>45427</v>
+      </c>
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>313000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>313000</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -721,6 +721,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -771,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA9A2AF-9007-4C0D-985E-DA9A7E3C8C43}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
